--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2932.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2932.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.993476948305599</v>
+        <v>1.67856228351593</v>
       </c>
       <c r="B1">
-        <v>1.850407003215033</v>
+        <v>1.870242118835449</v>
       </c>
       <c r="C1">
-        <v>7.279042624518443</v>
+        <v>5.136736392974854</v>
       </c>
       <c r="D1">
-        <v>3.16991554472781</v>
+        <v>1.344742774963379</v>
       </c>
       <c r="E1">
-        <v>1.446852604689395</v>
+        <v>0.7432289719581604</v>
       </c>
     </row>
   </sheetData>
